--- a/Saved_file/EM003/2026_07/sap_data.xlsx
+++ b/Saved_file/EM003/2026_07/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST2132</t>
+          <t>CUST2013</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22850698</v>
+        <v>15043628</v>
       </c>
       <c r="E2" t="n">
-        <v>3665250</v>
+        <v>3515331</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6380</t>
+          <t>CUST1797</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18315953</v>
+        <v>26752981</v>
       </c>
       <c r="E3" t="n">
-        <v>2833422</v>
+        <v>6144658</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2132</t>
+          <t>CUST9304</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16557393</v>
+        <v>23484198</v>
       </c>
       <c r="E4" t="n">
-        <v>2671752</v>
+        <v>5234256</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST7172</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38074424</v>
+        <v>33852724</v>
       </c>
       <c r="E5" t="n">
-        <v>8276482</v>
+        <v>7857371</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST9494</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20767744</v>
+        <v>15947458</v>
       </c>
       <c r="E6" t="n">
-        <v>3601962</v>
+        <v>2785625</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1583</t>
+          <t>CUST6403</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27787522</v>
+        <v>39330515</v>
       </c>
       <c r="E7" t="n">
-        <v>4898802</v>
+        <v>7129025</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1467</t>
+          <t>CUST3944</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24312576</v>
+        <v>38336907</v>
       </c>
       <c r="E8" t="n">
-        <v>5800051</v>
+        <v>8879101</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,12 +848,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST1523</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37583643</v>
+        <v>37955702</v>
       </c>
       <c r="E9" t="n">
-        <v>6915282</v>
+        <v>8478635</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST6064</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29363455</v>
+        <v>33326595</v>
       </c>
       <c r="E10" t="n">
-        <v>7129297</v>
+        <v>6386472</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST3839</t>
+          <t>CUST7587</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37264235</v>
+        <v>30957502</v>
       </c>
       <c r="E11" t="n">
-        <v>8704555</v>
+        <v>7278942</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST1100</t>
+          <t>CUST7587</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27548208</v>
+        <v>36808875</v>
       </c>
       <c r="E12" t="n">
-        <v>6796832</v>
+        <v>8466138</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST2077</t>
+          <t>CUST9304</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16980380</v>
+        <v>15488953</v>
       </c>
       <c r="E13" t="n">
-        <v>3940168</v>
+        <v>2485216</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST6359</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27148369</v>
+        <v>17138835</v>
       </c>
       <c r="E14" t="n">
-        <v>6261436</v>
+        <v>2866455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,22 +1194,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST1148</t>
+          <t>CUST4278</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19949730</v>
+        <v>32227115</v>
       </c>
       <c r="E15" t="n">
-        <v>3320395</v>
+        <v>6881687</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST6545</t>
+          <t>CUST2013</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16608212</v>
+        <v>30039666</v>
       </c>
       <c r="E16" t="n">
-        <v>2571549</v>
+        <v>4728982</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST1777</t>
+          <t>CUST5111</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28628206</v>
+        <v>23628966</v>
       </c>
       <c r="E17" t="n">
-        <v>6917744</v>
+        <v>3840144</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST3479</t>
+          <t>CUST7522</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27472446</v>
+        <v>23272372</v>
       </c>
       <c r="E18" t="n">
-        <v>6098472</v>
+        <v>4240923</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST8088</t>
+          <t>CUST9090</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30893778</v>
+        <v>16142854</v>
       </c>
       <c r="E19" t="n">
-        <v>6222508</v>
+        <v>3524166</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,12 +1442,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST9764</t>
+          <t>CUST9093</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34524104</v>
+        <v>36816489</v>
       </c>
       <c r="E20" t="n">
-        <v>7653859</v>
+        <v>6057558</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7696</t>
+          <t>CUST5045</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33813309</v>
+        <v>16644976</v>
       </c>
       <c r="E21" t="n">
-        <v>5727424</v>
+        <v>4106558</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5736</t>
+          <t>CUST5111</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38530434</v>
+        <v>31039172</v>
       </c>
       <c r="E22" t="n">
-        <v>7058473</v>
+        <v>7247543</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1729</t>
+          <t>CUST2206</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18114301</v>
+        <v>21436856</v>
       </c>
       <c r="E23" t="n">
-        <v>2775397</v>
+        <v>4882348</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST8899</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24952160</v>
+        <v>23121434</v>
       </c>
       <c r="E24" t="n">
-        <v>6012848</v>
+        <v>5173114</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST9090</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36830093</v>
+        <v>31371906</v>
       </c>
       <c r="E25" t="n">
-        <v>7424898</v>
+        <v>6486328</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-31</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST6062</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27007019</v>
+        <v>33088194</v>
       </c>
       <c r="E26" t="n">
-        <v>4469491</v>
+        <v>5744539</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1847,20 +1847,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST7587</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38658863</v>
+        <v>29685935</v>
       </c>
       <c r="E27" t="n">
-        <v>6864423</v>
+        <v>5967588</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST3479</t>
+          <t>CUST1461</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18823646</v>
+        <v>16713319</v>
       </c>
       <c r="E28" t="n">
-        <v>2851166</v>
+        <v>3517465</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4763</t>
+          <t>CUST4278</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17801042</v>
+        <v>17837265</v>
       </c>
       <c r="E29" t="n">
-        <v>3046643</v>
+        <v>2865057</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST3857</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21427866</v>
+        <v>15897296</v>
       </c>
       <c r="E30" t="n">
-        <v>4200874</v>
+        <v>3336041</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST5129</t>
+          <t>CUST5045</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32502708</v>
+        <v>20316694</v>
       </c>
       <c r="E31" t="n">
-        <v>6933035</v>
+        <v>3958235</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST5119</t>
+          <t>CUST5093</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>38708295</v>
+        <v>21638152</v>
       </c>
       <c r="E32" t="n">
-        <v>6522788</v>
+        <v>3779136</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,12 +2144,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST1540</t>
+          <t>CUST4278</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>26459036</v>
+        <v>34141374</v>
       </c>
       <c r="E33" t="n">
-        <v>4901521</v>
+        <v>7364998</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3549</t>
+          <t>CUST9093</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>31855176</v>
+        <v>23487820</v>
       </c>
       <c r="E34" t="n">
-        <v>6707095</v>
+        <v>5029994</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST3839</t>
+          <t>CUST1461</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>25269085</v>
+        <v>18432325</v>
       </c>
       <c r="E35" t="n">
-        <v>5017019</v>
+        <v>3260384</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST1797</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25817487</v>
+        <v>25932041</v>
       </c>
       <c r="E36" t="n">
-        <v>4654312</v>
+        <v>5519350</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6668</t>
+          <t>CUST4582</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29344167</v>
+        <v>17232466</v>
       </c>
       <c r="E37" t="n">
-        <v>5616876</v>
+        <v>4000515</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST7696</t>
+          <t>CUST6139</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24796867</v>
+        <v>37630503</v>
       </c>
       <c r="E38" t="n">
-        <v>5978003</v>
+        <v>5959607</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST1467</t>
+          <t>CUST4582</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29173863</v>
+        <v>20257288</v>
       </c>
       <c r="E39" t="n">
-        <v>5758955</v>
+        <v>4538355</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST5111</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>34999434</v>
+        <v>15437384</v>
       </c>
       <c r="E40" t="n">
-        <v>6760148</v>
+        <v>2848439</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST8264</t>
+          <t>CUST9090</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>29869766</v>
+        <v>31118731</v>
       </c>
       <c r="E41" t="n">
-        <v>5832394</v>
+        <v>7080626</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST5045</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>21346145</v>
+        <v>27959114</v>
       </c>
       <c r="E42" t="n">
-        <v>3458698</v>
+        <v>5809018</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST5736</t>
+          <t>CUST6403</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35458750</v>
+        <v>35272617</v>
       </c>
       <c r="E43" t="n">
-        <v>6013495</v>
+        <v>8777694</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST6380</t>
+          <t>CUST8484</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>33395067</v>
+        <v>22427541</v>
       </c>
       <c r="E44" t="n">
-        <v>7960340</v>
+        <v>4562376</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST9415</t>
+          <t>CUST5697</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>35648565</v>
+        <v>32549390</v>
       </c>
       <c r="E45" t="n">
-        <v>6814384</v>
+        <v>7338967</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4865</t>
+          <t>CUST1457</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>27335180</v>
+        <v>17428701</v>
       </c>
       <c r="E46" t="n">
-        <v>5702952</v>
+        <v>4134484</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2905,12 +2905,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST5736</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23309827</v>
+        <v>18485895</v>
       </c>
       <c r="E47" t="n">
-        <v>4214421</v>
+        <v>3070063</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST5223</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>26870021</v>
+        <v>24875216</v>
       </c>
       <c r="E48" t="n">
-        <v>5167789</v>
+        <v>4336083</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3035,24 +3035,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST8088</t>
+          <t>CUST8153</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35118761</v>
+        <v>33043437</v>
       </c>
       <c r="E49" t="n">
-        <v>6791554</v>
+        <v>7715302</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST8485</t>
+          <t>CUST2832</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>23196687</v>
+        <v>34653759</v>
       </c>
       <c r="E50" t="n">
-        <v>3619695</v>
+        <v>6014817</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2132</t>
+          <t>CUST1505</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>38336327</v>
+        <v>28863793</v>
       </c>
       <c r="E51" t="n">
-        <v>7542728</v>
+        <v>4831410</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST5521</t>
+          <t>CUST7522</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22082167</v>
+        <v>34470138</v>
       </c>
       <c r="E52" t="n">
-        <v>5451916</v>
+        <v>8436357</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST5526</t>
+          <t>CUST8899</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20357905</v>
+        <v>39747915</v>
       </c>
       <c r="E53" t="n">
-        <v>3591563</v>
+        <v>9233433</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST7005</t>
+          <t>CUST3857</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>18433926</v>
+        <v>34810261</v>
       </c>
       <c r="E54" t="n">
-        <v>3907025</v>
+        <v>6865113</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1467</t>
+          <t>CUST7172</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>18035009</v>
+        <v>26954093</v>
       </c>
       <c r="E55" t="n">
-        <v>3409670</v>
+        <v>5017720</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST7696</t>
+          <t>CUST5223</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>34792763</v>
+        <v>34452964</v>
       </c>
       <c r="E56" t="n">
-        <v>7771295</v>
+        <v>6212264</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST9415</t>
+          <t>CUST7172</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27126006</v>
+        <v>25882024</v>
       </c>
       <c r="E57" t="n">
-        <v>6570066</v>
+        <v>4636349</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3521,24 +3521,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST8899</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23221527</v>
+        <v>34345120</v>
       </c>
       <c r="E58" t="n">
-        <v>4056003</v>
+        <v>6053035</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST4633</t>
+          <t>CUST1523</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>36889013</v>
+        <v>31435176</v>
       </c>
       <c r="E59" t="n">
-        <v>6496182</v>
+        <v>6960053</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST1467</t>
+          <t>CUST4582</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29038016</v>
+        <v>15554162</v>
       </c>
       <c r="E60" t="n">
-        <v>4474015</v>
+        <v>2345597</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST8250</t>
+          <t>CUST9138</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30183974</v>
+        <v>32813566</v>
       </c>
       <c r="E61" t="n">
-        <v>6242805</v>
+        <v>5548590</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST4024</t>
+          <t>CUST9390</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>18112717</v>
+        <v>17539406</v>
       </c>
       <c r="E62" t="n">
-        <v>2922627</v>
+        <v>3065992</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST9390</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>36516702</v>
+        <v>27523363</v>
       </c>
       <c r="E63" t="n">
-        <v>6531477</v>
+        <v>5736573</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST8485</t>
+          <t>CUST9304</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21328865</v>
+        <v>38906091</v>
       </c>
       <c r="E64" t="n">
-        <v>3798156</v>
+        <v>8208152</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST4633</t>
+          <t>CUST8153</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>19087054</v>
+        <v>37854297</v>
       </c>
       <c r="E65" t="n">
-        <v>3433983</v>
+        <v>8405951</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST1817</t>
+          <t>CUST6139</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>16462659</v>
+        <v>31584206</v>
       </c>
       <c r="E66" t="n">
-        <v>2828537</v>
+        <v>7562386</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST6380</t>
+          <t>CUST9093</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35688706</v>
+        <v>36937433</v>
       </c>
       <c r="E67" t="n">
-        <v>8469828</v>
+        <v>8244886</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST7873</t>
+          <t>CUST1457</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25191721</v>
+        <v>23803878</v>
       </c>
       <c r="E68" t="n">
-        <v>5726238</v>
+        <v>5168681</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4093,12 +4093,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST6380</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19856256</v>
+        <v>29573865</v>
       </c>
       <c r="E69" t="n">
-        <v>3311900</v>
+        <v>5111252</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,12 +4142,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST1797</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>18036736</v>
+        <v>23178594</v>
       </c>
       <c r="E70" t="n">
-        <v>3322677</v>
+        <v>5555176</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST2731</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>25367466</v>
+        <v>25741907</v>
       </c>
       <c r="E71" t="n">
-        <v>5177702</v>
+        <v>5044297</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST6235</t>
+          <t>CUST5093</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31622158</v>
+        <v>24559230</v>
       </c>
       <c r="E72" t="n">
-        <v>6275228</v>
+        <v>4254221</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST1540</t>
+          <t>CUST3412</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>21944397</v>
+        <v>22058652</v>
       </c>
       <c r="E73" t="n">
-        <v>3400483</v>
+        <v>4423930</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST6638</t>
+          <t>CUST1461</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>16231830</v>
+        <v>16134203</v>
       </c>
       <c r="E74" t="n">
-        <v>2862234</v>
+        <v>3195962</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4417,12 +4417,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-07-30</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST6512</t>
+          <t>CUST4278</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22880468</v>
+        <v>31759013</v>
       </c>
       <c r="E75" t="n">
-        <v>3558114</v>
+        <v>6658363</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4471,12 +4471,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST8088</t>
+          <t>CUST8484</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>29281345</v>
+        <v>17398646</v>
       </c>
       <c r="E76" t="n">
-        <v>4589417</v>
+        <v>2720641</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST7005</t>
+          <t>CUST7990</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>36017238</v>
+        <v>23269816</v>
       </c>
       <c r="E77" t="n">
-        <v>8975501</v>
+        <v>4441498</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST7978</t>
+          <t>CUST6064</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23164281</v>
+        <v>38938514</v>
       </c>
       <c r="E78" t="n">
-        <v>4891554</v>
+        <v>8380662</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST3479</t>
+          <t>CUST9690</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26240599</v>
+        <v>34734499</v>
       </c>
       <c r="E79" t="n">
-        <v>4391419</v>
+        <v>7750711</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST7978</t>
+          <t>CUST9090</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>38357275</v>
+        <v>23167265</v>
       </c>
       <c r="E80" t="n">
-        <v>8644716</v>
+        <v>4922989</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST9764</t>
+          <t>CUST6403</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>31768099</v>
+        <v>17897600</v>
       </c>
       <c r="E81" t="n">
-        <v>7523775</v>
+        <v>3923888</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST1729</t>
+          <t>CUST8484</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>25783226</v>
+        <v>20324370</v>
       </c>
       <c r="E82" t="n">
-        <v>4070320</v>
+        <v>4600918</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST1461</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>19189905</v>
+        <v>15718947</v>
       </c>
       <c r="E83" t="n">
-        <v>3312235</v>
+        <v>2837574</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST5521</t>
+          <t>CUST6939</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>37879846</v>
+        <v>35481051</v>
       </c>
       <c r="E84" t="n">
-        <v>8048315</v>
+        <v>5417225</v>
       </c>
       <c r="F84" t="n">
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST1540</t>
+          <t>CUST2206</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>21141871</v>
+        <v>31394026</v>
       </c>
       <c r="E85" t="n">
-        <v>5052571</v>
+        <v>6597633</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5221</t>
+          <t>CUST5697</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25522184</v>
+        <v>37875479</v>
       </c>
       <c r="E86" t="n">
-        <v>5011555</v>
+        <v>6776754</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST2077</t>
+          <t>CUST6939</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>35977481</v>
+        <v>16744174</v>
       </c>
       <c r="E87" t="n">
-        <v>6192108</v>
+        <v>2915278</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST6232</t>
+          <t>CUST9494</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>18670389</v>
+        <v>37955992</v>
       </c>
       <c r="E88" t="n">
-        <v>4251900</v>
+        <v>7959491</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1729</t>
+          <t>CUST7990</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>19055552</v>
+        <v>17616025</v>
       </c>
       <c r="E89" t="n">
-        <v>3604819</v>
+        <v>3143673</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST4633</t>
+          <t>CUST1503</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>15593082</v>
+        <v>24741283</v>
       </c>
       <c r="E90" t="n">
-        <v>3209193</v>
+        <v>5238382</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5303,24 +5303,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST3479</t>
+          <t>CUST4582</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>37343613</v>
+        <v>38261259</v>
       </c>
       <c r="E91" t="n">
-        <v>8580086</v>
+        <v>7446626</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>7927973</v>
+        <v>9456054</v>
       </c>
       <c r="E2" t="n">
-        <v>1076124</v>
+        <v>1330958</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4925070</v>
+        <v>16588164</v>
       </c>
       <c r="E3" t="n">
-        <v>910345</v>
+        <v>3926140</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.3</v>
+        <v>87.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5116462</v>
+        <v>13299319</v>
       </c>
       <c r="E4" t="n">
-        <v>549980</v>
+        <v>1929693</v>
       </c>
     </row>
     <row r="5">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.8</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3339915</v>
+        <v>3032299</v>
       </c>
       <c r="E7" t="n">
-        <v>609956</v>
+        <v>448383</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3081232</v>
+        <v>5263545</v>
       </c>
       <c r="E8" t="n">
-        <v>819428</v>
+        <v>650909</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.8</v>
+        <v>86.8</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>7185768</v>
+        <v>4607017</v>
       </c>
       <c r="E9" t="n">
-        <v>1924795</v>
+        <v>1003608</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>11361527</v>
+        <v>3613300</v>
       </c>
       <c r="E10" t="n">
-        <v>1659291</v>
+        <v>599462</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>7428129</v>
+        <v>6828302</v>
       </c>
       <c r="E11" t="n">
-        <v>1206820</v>
+        <v>1869646</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5792537</v>
+        <v>4163566</v>
       </c>
       <c r="E12" t="n">
-        <v>1671167</v>
+        <v>949748</v>
       </c>
     </row>
     <row r="13">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.5</v>
+        <v>88.8</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>11934594</v>
+        <v>11667808</v>
       </c>
       <c r="E14" t="n">
-        <v>2040391</v>
+        <v>1639967</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.8</v>
+        <v>88.2</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>13289889</v>
+        <v>10677723</v>
       </c>
       <c r="E15" t="n">
-        <v>2365679</v>
+        <v>1237717</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>15305642</v>
+        <v>5832234</v>
       </c>
       <c r="E16" t="n">
-        <v>2109554</v>
+        <v>1341459</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7412100</v>
+        <v>16672115</v>
       </c>
       <c r="E17" t="n">
-        <v>1870162</v>
+        <v>4184178</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>11342287</v>
+        <v>4999687</v>
       </c>
       <c r="E18" t="n">
-        <v>1829102</v>
+        <v>597526</v>
       </c>
     </row>
     <row r="19">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2601274</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>577738</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>14509112</v>
+        <v>10924875</v>
       </c>
       <c r="E21" t="n">
-        <v>3752542</v>
+        <v>3001916</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>20115951</v>
+        <v>14418662</v>
       </c>
       <c r="E22" t="n">
-        <v>2391823</v>
+        <v>1796138</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>89.8</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7438168</v>
+        <v>18453076</v>
       </c>
       <c r="E23" t="n">
-        <v>1232176</v>
+        <v>3918984</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>6521873</v>
+        <v>8101618</v>
       </c>
       <c r="E24" t="n">
-        <v>850724</v>
+        <v>1534444</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>17277810</v>
+        <v>2705899</v>
       </c>
       <c r="E25" t="n">
-        <v>4344194</v>
+        <v>423713</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>4084780</v>
+        <v>5094967</v>
       </c>
       <c r="E26" t="n">
-        <v>740655</v>
+        <v>1416667</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2527863</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>708941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.8</v>
+        <v>78.3</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>10038497</v>
+        <v>4176568</v>
       </c>
       <c r="E28" t="n">
-        <v>2602896</v>
+        <v>924384</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>3719040</v>
+        <v>3562839</v>
       </c>
       <c r="E29" t="n">
-        <v>421970</v>
+        <v>874149</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.40000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>11685375</v>
+        <v>7031498</v>
       </c>
       <c r="E30" t="n">
-        <v>1917362</v>
+        <v>1023505</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>7007836</v>
+        <v>11544414</v>
       </c>
       <c r="E31" t="n">
-        <v>1207943</v>
+        <v>1487520</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>13561805</v>
+        <v>5480803</v>
       </c>
       <c r="E32" t="n">
-        <v>1805504</v>
+        <v>1229795</v>
       </c>
     </row>
   </sheetData>
